--- a/Doc.xlsx
+++ b/Doc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7788CE18-CE9B-432B-B280-31579A92E420}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F45915D9-D817-4EE0-8241-D54D9701C430}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Line1</t>
+  </si>
+  <si>
+    <t>LineA</t>
   </si>
 </sst>
 </file>
@@ -340,10 +343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -353,6 +356,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Doc.xlsx
+++ b/Doc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F45915D9-D817-4EE0-8241-D54D9701C430}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F3C13395-A98A-489A-925E-F8507DAE0819}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <t>Line1</t>
   </si>
   <si>
-    <t>LineA</t>
+    <t>LineD</t>
   </si>
 </sst>
 </file>
@@ -346,7 +346,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Doc.xlsx
+++ b/Doc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F3C13395-A98A-489A-925E-F8507DAE0819}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DF198EC8-9263-4301-9D67-4621EFA6DFF9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <t>Line1</t>
   </si>
   <si>
-    <t>LineD</t>
+    <t>LineE</t>
   </si>
 </sst>
 </file>
@@ -346,7 +346,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Doc.xlsx
+++ b/Doc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F3C13395-A98A-489A-925E-F8507DAE0819}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4A4EF7FE-2A2D-41E6-A48D-79E7D3387C7E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <t>Line1</t>
   </si>
   <si>
-    <t>LineD</t>
+    <t>LineF</t>
   </si>
 </sst>
 </file>
@@ -346,7 +346,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
